--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,72 +66,75 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + 0.7642501908369801y_1 - 1.1662572942554035y_2</t>
-  </si>
-  <si>
-    <t>-25.41893660210988</t>
+    <t>419.83515077597525 - 2x_1 - 2.8903419543864852y_1 - 2.7204896286426767y_2</t>
+  </si>
+  <si>
+    <t>-417.33515077597525</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
-  </si>
-  <si>
-    <t>-0.9546868806928536</t>
-  </si>
-  <si>
-    <t>-0.05655627844456257</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 - 0.4709850940862368y_1 + 0.6678482682322896y_2</t>
-  </si>
-  <si>
-    <t>-46.75042182237433</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
-  </si>
-  <si>
-    <t>0.07563595291797853</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>-0.8</t>
+  </si>
+  <si>
+    <t>-9.1</t>
+  </si>
+  <si>
+    <t>-114.77514938424258 + x_1 - 3x_2 + 1.0974550314307474y_1 + 1.4853455098848993y_2</t>
+  </si>
+  <si>
+    <t>112.77514938424258</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>3.9000000000000004</t>
+  </si>
+  <si>
+    <t>-111.66147872593956 + 1.0331071497050677y_1 + 0.8991342678868637y_2</t>
+  </si>
+  <si>
+    <t>111.66147872593956</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>-35.9299755932228 + 0.36990054091112406y_1 - 0.836412826499909y_2</t>
+  </si>
+  <si>
+    <t>35.8099755932228</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>6.4</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-0.2062254575395409y_1 + 0.5597917900626571y_2</t>
-  </si>
-  <si>
-    <t>-20.413443694886567</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.013569876241022794</t>
-  </si>
-  <si>
-    <t>0.23788169461118436</t>
-  </si>
-  <si>
-    <t>0.4709850940862368y_1 - 0.6678482682322896y_2</t>
-  </si>
-  <si>
-    <t>46.93375405298526</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.37152002088609204</t>
-  </si>
-  <si>
     <t>x_1</t>
   </si>
   <si>
@@ -144,40 +147,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>4.092101725845173</t>
-  </si>
-  <si>
-    <t>-1.2005998355706835</t>
+    <t>4.5340558946416945</t>
+  </si>
+  <si>
+    <t>-0.6057302088645152</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>0.01499028569631422</t>
-  </si>
-  <si>
-    <t>-0.7730921412460644</t>
-  </si>
-  <si>
-    <t>0.093061099105054</t>
-  </si>
-  <si>
-    <t>-0.9234011812598398</t>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>1.6999999999999997</t>
+  </si>
+  <si>
+    <t>-10.299775152448326</t>
+  </si>
+  <si>
+    <t>-1.7566976437585868</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -691,7 +694,7 @@
         <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -709,30 +712,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -750,17 +753,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -778,27 +781,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -816,17 +819,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.9713109041289845</v>
+        <v>2.223053556230778</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.684995348987055</v>
+        <v>0.9831373777052569</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,73 +66,70 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>419.83515077597525 - 2x_1 - 2.8903419543864852y_1 - 2.7204896286426767y_2</t>
-  </si>
-  <si>
-    <t>-417.33515077597525</t>
+    <t>-12.772972972972951 - 2x_1 + 1.135135135135135y_1 - 0.810810810810811y_2</t>
+  </si>
+  <si>
+    <t>15.272972972972951</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>-0.8</t>
-  </si>
-  <si>
-    <t>-9.1</t>
-  </si>
-  <si>
-    <t>-114.77514938424258 + x_1 - 3x_2 + 1.0974550314307474y_1 + 1.4853455098848993y_2</t>
-  </si>
-  <si>
-    <t>112.77514938424258</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
-  </si>
-  <si>
-    <t>3.9000000000000004</t>
-  </si>
-  <si>
-    <t>-111.66147872593956 + 1.0331071497050677y_1 + 0.8991342678868637y_2</t>
-  </si>
-  <si>
-    <t>111.66147872593956</t>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>173.5641891891892 + x_1 - 3x_2 - 1.5540540540540542y_1 - 1.1756756756756754y_2</t>
+  </si>
+  <si>
+    <t>-175.5641891891892</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>-1.6</t>
+  </si>
+  <si>
+    <t>-2.4</t>
+  </si>
+  <si>
+    <t>57.75074849075653 - 0.5640713547106777y_1 + 0.6103001034050511y_2</t>
+  </si>
+  <si>
+    <t>-57.75074849075653</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>-35.9299755932228 + 0.36990054091112406y_1 - 0.836412826499909y_2</t>
-  </si>
-  <si>
-    <t>35.8099755932228</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>-368.83581081081087 + 3.4459459459459465y_1 + 3.8243243243243246y_2</t>
+  </si>
+  <si>
+    <t>368.28581081081086</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>6.6000000000000005</t>
   </si>
   <si>
     <t>x_1</t>
@@ -147,40 +144,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>4.5340558946416945</t>
-  </si>
-  <si>
-    <t>-0.6057302088645152</t>
+    <t>1.8666746608367828</t>
+  </si>
+  <si>
+    <t>-2.5326554748285037</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>1.6999999999999997</t>
-  </si>
-  <si>
-    <t>-10.299775152448326</t>
-  </si>
-  <si>
-    <t>-1.7566976437585868</t>
+    <t>10.200000000000001</t>
+  </si>
+  <si>
+    <t>-5.800000000000001</t>
+  </si>
+  <si>
+    <t>-10.79781576900275</t>
+  </si>
+  <si>
+    <t>-9.156942076603846</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -674,27 +671,27 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -712,30 +709,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
         <v>34</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="D1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -753,17 +750,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -781,27 +778,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -819,17 +816,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.223053556230778</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.9831373777052569</v>
+        <v>1.0499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,70 +66,52 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-12.772972972972951 - 2x_1 + 1.135135135135135y_1 - 0.810810810810811y_2</t>
-  </si>
-  <si>
-    <t>15.272972972972951</t>
+    <t>-12.217254528122025 - 2x_1 + 1.128693994280267y_1 - 0.1763584366062918y_2</t>
+  </si>
+  <si>
+    <t>14.717254528122025</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
-  </si>
-  <si>
-    <t>3.3000000000000003</t>
+    <t>0.92</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>173.5641891891892 + x_1 - 3x_2 - 1.5540540540540542y_1 - 1.1756756756756754y_2</t>
-  </si>
-  <si>
-    <t>-175.5641891891892</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>-1.6</t>
-  </si>
-  <si>
-    <t>-2.4</t>
-  </si>
-  <si>
-    <t>57.75074849075653 - 0.5640713547106777y_1 + 0.6103001034050511y_2</t>
-  </si>
-  <si>
-    <t>-57.75074849075653</t>
+    <t>18.33341277407054 + x_1 - 3x_2 - 0.15252621544327932y_1 + 0.023832221163012424y_2</t>
+  </si>
+  <si>
+    <t>-20.33341277407054</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>99.73384175405148 - 0.9761677788369876y_1 + 0.15252621544327932y_2</t>
+  </si>
+  <si>
+    <t>-99.73384175405148</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>-368.83581081081087 + 3.4459459459459465y_1 + 3.8243243243243246y_2</t>
-  </si>
-  <si>
-    <t>368.28581081081086</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>-15.753412774070544 + 0.15252621544327932y_1 - 0.023832221163012424y_2</t>
+  </si>
+  <si>
+    <t>15.583412774070544</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>6.6000000000000005</t>
+    <t>0.75</t>
   </si>
   <si>
     <t>x_1</t>
@@ -144,40 +126,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>1.8666746608367828</t>
-  </si>
-  <si>
-    <t>-2.5326554748285037</t>
+    <t>3.3804385128693992</t>
+  </si>
+  <si>
+    <t>-0.9031935176358435</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>10.200000000000001</t>
-  </si>
-  <si>
-    <t>-5.800000000000001</t>
-  </si>
-  <si>
-    <t>-10.79781576900275</t>
-  </si>
-  <si>
-    <t>-9.156942076603846</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-0.0</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -631,67 +613,67 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -709,30 +691,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -750,17 +732,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -778,27 +760,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -816,17 +798,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.75</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.0499999999999998</v>
+        <v>0.96</v>
       </c>
     </row>
   </sheetData>
